--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsing\Desktop\email project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCE4E6B-297B-4DBB-81DF-79912C3FFA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8417D15-4868-4C18-BF62-83F3A83B1A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7875" xr2:uid="{C1F290E2-1974-49B0-89FA-CB8A9D5E956A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1F290E2-1974-49B0-89FA-CB8A9D5E956A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>probir da</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>aniket dutta</t>
   </si>
@@ -42,9 +39,6 @@
     <t>hashir.imam99@gmail.com</t>
   </si>
   <si>
-    <t>biswasprobir1999@gmail.com</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -67,6 +61,18 @@
   </si>
   <si>
     <t>hash.im99.dav@gmail.com</t>
+  </si>
+  <si>
+    <t>gourav</t>
+  </si>
+  <si>
+    <t>gsingh6122016@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajnikant</t>
+  </si>
+  <si>
+    <t>rk737dubey1294@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C687734-3732-457C-B1BF-5A248CA37AEC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,59 +461,69 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{96A5BA4B-02C2-45B2-B857-D04A40442B1D}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{1266A4D8-44F2-4F8E-900C-BA9BF0328801}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{F616A752-8581-46B3-B4E2-A5737AA18BE5}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{96A5BA4B-02C2-45B2-B857-D04A40442B1D}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{1266A4D8-44F2-4F8E-900C-BA9BF0328801}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{F616A752-8581-46B3-B4E2-A5737AA18BE5}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{3D6893D4-140B-4698-AA47-989B4EF84FC7}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{A39C8A02-0E38-47F7-942C-435570DFC91E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>